--- a/medicine/Psychotrope/Café_Le_Napoléon/Café_Le_Napoléon.xlsx
+++ b/medicine/Psychotrope/Café_Le_Napoléon/Café_Le_Napoléon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_Le_Napol%C3%A9on</t>
+          <t>Café_Le_Napoléon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café Le Napoléon est café situé à Nîmes dans lé département du Gard en région Occitanie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_Le_Napol%C3%A9on</t>
+          <t>Café_Le_Napoléon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’établissement a vu le jour en 1813[1].
-Protection
-En totalité, la devanture en bois et la salle du café située au rez-de-chaussée avec le salon décoré attenant à l'arrière ainsi que les deux salles situées au-dessus au 1er étage du café Le Napoléon, ancien café de Paris, situé 46 boulevard Victor-Hugo, tel que délimité sur le plan annexé à l'arrêté sont inscrits au titre des monuments historiques par arrêté du 2 novembre 2017[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’établissement a vu le jour en 1813.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Café_Le_Napoléon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caf%C3%A9_Le_Napol%C3%A9on</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En totalité, la devanture en bois et la salle du café située au rez-de-chaussée avec le salon décoré attenant à l'arrière ainsi que les deux salles situées au-dessus au 1er étage du café Le Napoléon, ancien café de Paris, situé 46 boulevard Victor-Hugo, tel que délimité sur le plan annexé à l'arrêté sont inscrits au titre des monuments historiques par arrêté du 2 novembre 2017.
 </t>
         </is>
       </c>
